--- a/електрична частна станцій та підстанцій/Книга1.xlsx
+++ b/електрична частна станцій та підстанцій/Книга1.xlsx
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -371,7 +371,7 @@
   <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>0.32868410517886321</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E4:E15" si="3">A5*D5</f>
+        <f t="shared" ref="E5:E15" si="3">A5*D5</f>
         <v>7.8884185242927174</v>
       </c>
       <c r="F5">
@@ -508,7 +508,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B4:B15" si="4">0.21*(A6-10)/(120-10)+0.7</f>
+        <f t="shared" ref="B6:B14" si="4">0.21*(A6-10)/(120-10)+0.7</f>
         <v>0.79545454545454541</v>
       </c>
       <c r="C6" s="2">
@@ -527,7 +527,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G4:G15" si="5">E6-F6</f>
+        <f t="shared" ref="G6:G14" si="5">E6-F6</f>
         <v>13.710714146194455</v>
       </c>
       <c r="H6">

--- a/електрична частна станцій та підстанцій/Книга1.xlsx
+++ b/електрична частна станцій та підстанцій/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>COS</t>
   </si>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Sрозр</t>
+  </si>
+  <si>
+    <t>S_E2</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>k_в</t>
+  </si>
+  <si>
+    <t>S_c</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>S_вп</t>
+  </si>
+  <si>
+    <t>S_ном</t>
   </si>
 </sst>
 </file>
@@ -368,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,6 +847,84 @@
         <v>34.020117008318337</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>SUM(A3:A15)</f>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <f>H9/((2-1)*4)</f>
+        <v>30.530817246296746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <f>SQRT(((H3^2+H4^2+H5^2+H6^2+H7^2+H8^2+H9^2+H10^2+H12^2+H11^2+H13^2+H14^2+H15^2)*2)/24)</f>
+        <v>71.412992564877811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <f>B20/125</f>
+        <v>0.57130394051902245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f>(125-110)/125</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f>SQRT((0.12*120+12)^2+(0.12*55.9+3.94)^2)</f>
+        <v>28.466469819772172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <f>((A16*2)/120)*365</f>
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <f>0.001*122.1</f>
+        <v>0.1221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <f>0.1221/1.4</f>
+        <v>8.7214285714285716E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/електрична частна станцій та підстанцій/Книга1.xlsx
+++ b/електрична частна станцій та підстанцій/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>COS</t>
   </si>
@@ -69,6 +69,57 @@
   </si>
   <si>
     <t>S_ном</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>6_8</t>
+  </si>
+  <si>
+    <t>8_10</t>
+  </si>
+  <si>
+    <t>10_12</t>
+  </si>
+  <si>
+    <t>12_14</t>
+  </si>
+  <si>
+    <t>14_15</t>
+  </si>
+  <si>
+    <t>15_16</t>
+  </si>
+  <si>
+    <t>16_18</t>
+  </si>
+  <si>
+    <t>18_20</t>
+  </si>
+  <si>
+    <t>20_22</t>
+  </si>
+  <si>
+    <t>22_24</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>S_с</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Tmax</t>
   </si>
 </sst>
 </file>
@@ -392,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +456,7 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -428,7 +479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>48</f>
         <v>48</v>
@@ -460,8 +511,18 @@
         <f>SQRT(A3^2+G3^2)</f>
         <v>48.574936063973404</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>(H3^2)*$J$3</f>
+        <v>4719.0488272382081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>12</f>
         <v>12</v>
@@ -493,8 +554,18 @@
         <f t="shared" ref="H4:H15" si="2">SQRT(A4^2+G4^2)</f>
         <v>30.514380117024075</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K15" si="3">(H4^2)*$J$3</f>
+        <v>1862.2547878524683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>24</f>
         <v>24</v>
@@ -512,7 +583,7 @@
         <v>0.32868410517886321</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E15" si="3">A5*D5</f>
+        <f t="shared" ref="E5:E15" si="4">A5*D5</f>
         <v>7.8884185242927174</v>
       </c>
       <c r="F5">
@@ -526,13 +597,20 @@
         <f t="shared" si="2"/>
         <v>34.020117008318337</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>2314.7367225193411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B14" si="4">0.21*(A6-10)/(120-10)+0.7</f>
+        <f t="shared" ref="B6:B14" si="5">0.21*(A6-10)/(120-10)+0.7</f>
         <v>0.79545454545454541</v>
       </c>
       <c r="C6" s="2">
@@ -544,27 +622,34 @@
         <v>0.76184523576990759</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.710714146194455</v>
       </c>
       <c r="F6">
         <v>32</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G14" si="5">E6-F6</f>
+        <f t="shared" ref="G6:G14" si="6">E6-F6</f>
         <v>13.710714146194455</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
         <v>61.546597650874709</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>7575.9673647973123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>72</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81836363636363629</v>
       </c>
       <c r="C7" s="2">
@@ -576,27 +661,34 @@
         <v>0.7022559779407781</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50.562430411736024</v>
       </c>
       <c r="F7">
         <v>32</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.562430411736024</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
         <v>74.354312738337796</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>11057.127645581084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>48</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77254545454545454</v>
       </c>
       <c r="C8" s="2">
@@ -608,27 +700,34 @@
         <v>0.82190563682401441</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.45147056755269</v>
       </c>
       <c r="F8">
         <v>32</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4514705675526898</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
         <v>48.574936063973404</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>4719.0488272382081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>120</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90999999999999992</v>
       </c>
       <c r="C9" s="2">
@@ -640,27 +739,34 @@
         <v>0.45561346025555793</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.673615230666954</v>
       </c>
       <c r="F9">
         <v>32</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22.673615230666954</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
         <v>122.12326898518698</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>29828.185655256664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>96</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86418181818181816</v>
       </c>
       <c r="C10" s="2">
@@ -672,27 +778,34 @@
         <v>0.5822613531152967</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.897089899068483</v>
       </c>
       <c r="F10">
         <v>32</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.897089899068483</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
         <v>98.929626025999724</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <f>(H10^2)*$J$4</f>
+        <v>9787.0709056441628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>84</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84127272727272717</v>
       </c>
       <c r="C11" s="2">
@@ -704,27 +817,34 @@
         <v>0.64261081053744551</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.979308085145419</v>
       </c>
       <c r="F11">
         <v>32</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.979308085145419</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
         <v>86.827933200679936</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <f>(H11^2)*$J$4</f>
+        <v>7539.0899839017375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>72</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81836363636363629</v>
       </c>
       <c r="C12" s="2">
@@ -736,27 +856,34 @@
         <v>0.7022559779407781</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50.562430411736024</v>
       </c>
       <c r="F12">
         <v>32</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.562430411736024</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
         <v>74.354312738337796</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>11057.127645581084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.79545454545454541</v>
       </c>
       <c r="C13" s="2">
@@ -768,27 +895,34 @@
         <v>0.76184523576990759</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.710714146194455</v>
       </c>
       <c r="F13">
         <v>32</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.710714146194455</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
         <v>61.546597650874709</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>7575.9673647973123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>48</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77254545454545454</v>
       </c>
       <c r="C14" s="2">
@@ -800,22 +934,29 @@
         <v>0.82190563682401441</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.45147056755269</v>
       </c>
       <c r="F14">
         <v>32</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.4514705675526898</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
         <v>48.574936063973404</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>4719.0488272382081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24</v>
       </c>
@@ -832,7 +973,7 @@
         <v>0.32868410517886321</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8884185242927174</v>
       </c>
       <c r="F15">
@@ -846,41 +987,52 @@
         <f t="shared" si="2"/>
         <v>34.020117008318337</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>2314.7367225193411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>SUM(A3:A15)</f>
         <v>768</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18">
-        <f>H9/((2-1)*4)</f>
-        <v>30.530817246296746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <f>H9/((2-1)*1.4)</f>
+        <v>87.23090641799071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20">
-        <f>SQRT(((H3^2+H4^2+H5^2+H6^2+H7^2+H8^2+H9^2+H10^2+H12^2+H11^2+H13^2+H14^2+H15^2)*2)/24)</f>
-        <v>71.412992564877811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <f>SQRT(SUM(K3:K15)/24)</f>
+        <v>66.165641662977521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <f>B20/125</f>
-        <v>0.57130394051902245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.52932513330382014</v>
+      </c>
+      <c r="G21">
+        <f>SQRT((M4^2+M5^2+M6^2+M7^2+M8^2+M9^2+M10^2+M11^2+M13^2+M12^2+M14^2+M15^2+M16^2)*2)/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -889,16 +1041,26 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23">
-        <f>SQRT((0.12*120+12)^2+(0.12*55.9+3.94)^2)</f>
-        <v>28.466469819772172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <f>SQRT((0.12*120+0)^2+(0.12*55.9+3.94)^2)</f>
+        <v>17.909212824688861</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <f>0.12*125*2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -907,7 +1069,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -916,13 +1078,31 @@
         <v>0.1221</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26">
         <f>0.1221/1.4</f>
         <v>8.7214285714285716E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <f>120/29.7</f>
+        <v>4.0404040404040407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <f>SQRT(SUM(K3:K15)/120)*365</f>
+        <v>10800.413694931629</v>
       </c>
     </row>
   </sheetData>
